--- a/JET-TOON Splatoon altenative (Case & Answers).xlsx
+++ b/JET-TOON Splatoon altenative (Case & Answers).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A195122-DF73-49BC-8926-65F0500A3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5CC9F-5583-4B3F-9FAE-7D7176C54D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Movement styles" sheetId="3" r:id="rId3"/>
     <sheet name="Answers" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_nMap">MAP!$A$1:$BI$36</definedName>
+    <definedName name="_nVal">_xlfn.ANCHORARRAY(MAP!$A$39)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -8250,7 +8254,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>184446</xdr:rowOff>
+      <xdr:rowOff>171111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8625,8 +8629,8 @@
   </sheetPr>
   <dimension ref="B1:AV206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" topLeftCell="D26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47:AF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9324,7 +9328,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>1589</v>
       </c>
@@ -9351,8 +9355,8 @@
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:20" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:32" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="101" t="s">
         <v>79</v>
       </c>
@@ -9375,8 +9379,8 @@
       <c r="R35" s="129"/>
       <c r="S35" s="130"/>
     </row>
-    <row r="36" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="54" t="s">
         <v>84</v>
       </c>
@@ -9384,29 +9388,29 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:20" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="148" t="s">
         <v>1606</v>
       </c>
@@ -9454,7 +9458,7 @@
       </c>
       <c r="T44" s="48"/>
     </row>
-    <row r="45" spans="2:20" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="149"/>
       <c r="C45" s="149"/>
       <c r="D45" s="149"/>
@@ -9502,13 +9506,13 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:32" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B47" s="22" t="s">
         <v>85</v>
       </c>
@@ -9567,12 +9571,82 @@
       <c r="T47" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="V47" s="1" t="str" cm="1">
+        <f t="array" ref="V47:AF48">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G47:T47,G47:T47,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G47:T47,_xlpm.keep),
+     _xlfn.VSTACK(_xlpm.plrs,_xlpm.trgs))</f>
+        <v>P1</v>
+      </c>
+      <c r="W47" s="1" t="str">
+        <v>P2</v>
+      </c>
+      <c r="X47" s="1" t="str">
+        <v>P1</v>
+      </c>
+      <c r="Y47" s="1" t="str">
+        <v>P2</v>
+      </c>
+      <c r="Z47" s="1" t="str">
+        <v>P1</v>
+      </c>
+      <c r="AA47" s="1" t="str">
+        <v>P2</v>
+      </c>
+      <c r="AB47" s="1" t="str">
+        <v>P1</v>
+      </c>
+      <c r="AC47" s="1" t="str">
+        <v>P1</v>
+      </c>
+      <c r="AD47" s="1" t="str">
+        <v>P2</v>
+      </c>
+      <c r="AE47" s="1" t="str">
+        <v>P1</v>
+      </c>
+      <c r="AF47" s="1" t="str">
+        <v>P2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="102"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
+      <c r="V48" s="1" t="str">
+        <v>B20</v>
+      </c>
+      <c r="W48" s="1" t="str">
+        <v>AK19</v>
+      </c>
+      <c r="X48" s="1" t="str">
+        <v>AB32</v>
+      </c>
+      <c r="Y48" s="1" t="str">
+        <v>A21</v>
+      </c>
+      <c r="Z48" s="1" t="str">
+        <v>BH18</v>
+      </c>
+      <c r="AA48" s="1" t="str">
+        <v>O4</v>
+      </c>
+      <c r="AB48" s="1" t="str">
+        <v>AM25</v>
+      </c>
+      <c r="AC48" s="1" t="str">
+        <v>BG7</v>
+      </c>
+      <c r="AD48" s="1" t="str">
+        <v>AL18</v>
+      </c>
+      <c r="AE48" s="1" t="str">
+        <v>BC21</v>
+      </c>
+      <c r="AF48" s="1" t="str">
+        <v>P7</v>
+      </c>
     </row>
     <row r="49" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B49" s="103">
@@ -18454,9 +18528,11 @@
   <sheetPr codeName="Feuil3">
     <tabColor rgb="FF007B00"/>
   </sheetPr>
-  <dimension ref="A1:BJ37"/>
+  <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BL41" sqref="BL41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22583,6 +22659,6667 @@
         <v>76</v>
       </c>
       <c r="BJ37" s="16"/>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" cm="1">
+        <f t="array" ref="A39:BI74">_xlfn.XLOOKUP(_nMap,Case!$B$14:$B$21,Case!$D$14:$D$21)</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1">
+        <v>5</v>
+      </c>
+      <c r="T45" s="1">
+        <v>5</v>
+      </c>
+      <c r="U45" s="1">
+        <v>5</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC45" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD45" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE45" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1">
+        <v>5</v>
+      </c>
+      <c r="S46" s="1">
+        <v>5</v>
+      </c>
+      <c r="T46" s="1">
+        <v>5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>5</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB46" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC46" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD46" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE46" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>5</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>6</v>
+      </c>
+      <c r="T47" s="1">
+        <v>5</v>
+      </c>
+      <c r="U47" s="1">
+        <v>5</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB47" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC47" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD47" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE47" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>8</v>
+      </c>
+      <c r="O48" s="1">
+        <v>5</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>5</v>
+      </c>
+      <c r="S48" s="1">
+        <v>5</v>
+      </c>
+      <c r="T48" s="1">
+        <v>5</v>
+      </c>
+      <c r="U48" s="1">
+        <v>5</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC48" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD48" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE48" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>6</v>
+      </c>
+      <c r="N49" s="1">
+        <v>8</v>
+      </c>
+      <c r="O49" s="1">
+        <v>5</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1">
+        <v>5</v>
+      </c>
+      <c r="S49" s="1">
+        <v>5</v>
+      </c>
+      <c r="T49" s="1">
+        <v>5</v>
+      </c>
+      <c r="U49" s="1">
+        <v>5</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB49" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC49" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD49" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE49" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1">
+        <v>3</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>3</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH51" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>5</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1">
+        <v>5</v>
+      </c>
+      <c r="S52" s="1">
+        <v>5</v>
+      </c>
+      <c r="T52" s="1">
+        <v>5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>5</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC52" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD52" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE52" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>6</v>
+      </c>
+      <c r="O53" s="1">
+        <v>5</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1">
+        <v>5</v>
+      </c>
+      <c r="T53" s="1">
+        <v>5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>5</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW53" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC53" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD53" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE53" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>8</v>
+      </c>
+      <c r="O54" s="1">
+        <v>5</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5</v>
+      </c>
+      <c r="T54" s="1">
+        <v>5</v>
+      </c>
+      <c r="U54" s="1">
+        <v>5</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC54" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD54" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE54" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>5</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <v>5</v>
+      </c>
+      <c r="S55" s="1">
+        <v>5</v>
+      </c>
+      <c r="T55" s="1">
+        <v>6</v>
+      </c>
+      <c r="U55" s="1">
+        <v>5</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB55" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC55" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD55" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE55" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>6</v>
+      </c>
+      <c r="O56" s="1">
+        <v>5</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <v>5</v>
+      </c>
+      <c r="S56" s="1">
+        <v>5</v>
+      </c>
+      <c r="T56" s="1">
+        <v>5</v>
+      </c>
+      <c r="U56" s="1">
+        <v>5</v>
+      </c>
+      <c r="V56" s="1">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB56" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC56" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD56" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE56" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>5</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1">
+        <v>5</v>
+      </c>
+      <c r="S57" s="1">
+        <v>5</v>
+      </c>
+      <c r="T57" s="1">
+        <v>5</v>
+      </c>
+      <c r="U57" s="1">
+        <v>5</v>
+      </c>
+      <c r="V57" s="1">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC57" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD57" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE57" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>5</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>5</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1">
+        <v>8</v>
+      </c>
+      <c r="T58" s="1">
+        <v>5</v>
+      </c>
+      <c r="U58" s="1">
+        <v>5</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW58" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB58" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC58" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD58" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE58" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>5</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1">
+        <v>5</v>
+      </c>
+      <c r="S59" s="1">
+        <v>5</v>
+      </c>
+      <c r="T59" s="1">
+        <v>6</v>
+      </c>
+      <c r="U59" s="1">
+        <v>5</v>
+      </c>
+      <c r="V59" s="1">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX59" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC59" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD59" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE59" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5</v>
+      </c>
+      <c r="J60" s="1">
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>8</v>
+      </c>
+      <c r="N60" s="1">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>5</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1">
+        <v>5</v>
+      </c>
+      <c r="S60" s="1">
+        <v>5</v>
+      </c>
+      <c r="T60" s="1">
+        <v>5</v>
+      </c>
+      <c r="U60" s="1">
+        <v>5</v>
+      </c>
+      <c r="V60" s="1">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB60" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC60" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD60" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE60" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1</v>
+      </c>
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
+        <v>1</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH62" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>6</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>5</v>
+      </c>
+      <c r="N63" s="1">
+        <v>6</v>
+      </c>
+      <c r="O63" s="1">
+        <v>5</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1">
+        <v>5</v>
+      </c>
+      <c r="T63" s="1">
+        <v>5</v>
+      </c>
+      <c r="U63" s="1">
+        <v>8</v>
+      </c>
+      <c r="V63" s="1">
+        <v>1</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB63" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC63" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD63" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE63" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>5</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1">
+        <v>5</v>
+      </c>
+      <c r="S64" s="1">
+        <v>5</v>
+      </c>
+      <c r="T64" s="1">
+        <v>5</v>
+      </c>
+      <c r="U64" s="1">
+        <v>5</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="X64" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW64" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB64" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC64" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD64" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE64" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>8</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>6</v>
+      </c>
+      <c r="N65" s="1">
+        <v>5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>5</v>
+      </c>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1">
+        <v>5</v>
+      </c>
+      <c r="S65" s="1">
+        <v>5</v>
+      </c>
+      <c r="T65" s="1">
+        <v>8</v>
+      </c>
+      <c r="U65" s="1">
+        <v>5</v>
+      </c>
+      <c r="V65" s="1">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB65" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC65" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD65" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE65" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1">
+        <v>6</v>
+      </c>
+      <c r="T66" s="1">
+        <v>5</v>
+      </c>
+      <c r="U66" s="1">
+        <v>5</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY66" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC66" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD66" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE66" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>5</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1">
+        <v>5</v>
+      </c>
+      <c r="S67" s="1">
+        <v>5</v>
+      </c>
+      <c r="T67" s="1">
+        <v>5</v>
+      </c>
+      <c r="U67" s="1">
+        <v>5</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+      <c r="X67" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC67" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD67" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE67" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1">
+        <v>5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>5</v>
+      </c>
+      <c r="N68" s="1">
+        <v>5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1">
+        <v>5</v>
+      </c>
+      <c r="S68" s="1">
+        <v>5</v>
+      </c>
+      <c r="T68" s="1">
+        <v>5</v>
+      </c>
+      <c r="U68" s="1">
+        <v>5</v>
+      </c>
+      <c r="V68" s="1">
+        <v>1</v>
+      </c>
+      <c r="W68" s="1">
+        <v>1</v>
+      </c>
+      <c r="X68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB68" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC68" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD68" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE68" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
+        <v>3</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1</v>
+      </c>
+      <c r="W69" s="1">
+        <v>1</v>
+      </c>
+      <c r="X69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>3</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1</v>
+      </c>
+      <c r="U70" s="1">
+        <v>1</v>
+      </c>
+      <c r="V70" s="1">
+        <v>1</v>
+      </c>
+      <c r="W70" s="1">
+        <v>1</v>
+      </c>
+      <c r="X70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD70" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1">
+        <v>1</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1</v>
+      </c>
+      <c r="S72" s="1">
+        <v>1</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1</v>
+      </c>
+      <c r="V72" s="1">
+        <v>1</v>
+      </c>
+      <c r="W72" s="1">
+        <v>1</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1">
+        <v>1</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1">
+        <v>1</v>
+      </c>
+      <c r="V74" s="1">
+        <v>1</v>
+      </c>
+      <c r="W74" s="1">
+        <v>1</v>
+      </c>
+      <c r="X74" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B6">

--- a/JET-TOON Splatoon altenative (Case & Answers).xlsx
+++ b/JET-TOON Splatoon altenative (Case & Answers).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5CC9F-5583-4B3F-9FAE-7D7176C54D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DD754-65D7-4DD4-A96B-F585CFA6B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Answers" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_fDeref">_xlfn.LAMBDA(_xlpm.ref, _xlfn.LET( _xlpm.c, _xlfn.REGEXEXTRACT(_xlpm.ref,"[A-Z]+",0), _xlpm.r, _xlfn.REGEXEXTRACT(_xlpm.ref,"\d+",0)+0, _xlpm.cn,COLUMN(INDIRECT(_xlpm.c&amp;"1")), INDEX(_nMap,_xlpm.r,_xlpm.cn) ))</definedName>
     <definedName name="_nMap">MAP!$A$1:$BI$36</definedName>
     <definedName name="_nVal">_xlfn.ANCHORARRAY(MAP!$A$39)</definedName>
   </definedNames>
@@ -42,8 +43,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -54,11 +56,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -6614,92 +6630,7 @@
   <dxfs count="321">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -6744,22 +6675,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
       </font>
     </dxf>
     <dxf>
@@ -6774,22 +6695,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
+        <color rgb="FF0EB9EE"/>
       </font>
     </dxf>
     <dxf>
@@ -6814,472 +6720,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="7" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -7324,497 +6770,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
@@ -7839,302 +6795,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
@@ -8199,12 +6860,1367 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -8359,6 +8375,65 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#N/A</fb>
+    <v>6</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8629,8 +8704,8 @@
   </sheetPr>
   <dimension ref="B1:AV206"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47:AF48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA57" sqref="AA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8652,9 +8727,9 @@
     <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="9.109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="1"/>
+    <col min="21" max="21" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9188,7 +9263,7 @@
       </c>
       <c r="M26" s="145" cm="1">
         <f t="array" ref="M26">SUMPRODUCT(D:D,N(F:F=1))</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N26" s="143"/>
       <c r="O26" s="144"/>
@@ -9328,7 +9403,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>1589</v>
       </c>
@@ -9355,8 +9430,8 @@
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:32" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:22" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="101" t="s">
         <v>79</v>
       </c>
@@ -9379,8 +9454,8 @@
       <c r="R35" s="129"/>
       <c r="S35" s="130"/>
     </row>
-    <row r="36" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="54" t="s">
         <v>84</v>
       </c>
@@ -9388,29 +9463,29 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="38" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="40" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="41" spans="2:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="43" spans="2:32" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:22" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="148" t="s">
         <v>1606</v>
       </c>
@@ -9458,7 +9533,7 @@
       </c>
       <c r="T44" s="48"/>
     </row>
-    <row r="45" spans="2:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="149"/>
       <c r="C45" s="149"/>
       <c r="D45" s="149"/>
@@ -9506,13 +9581,13 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="46" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="2:32" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B47" s="22" t="s">
         <v>85</v>
       </c>
@@ -9571,84 +9646,34 @@
       <c r="T47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="V47" s="1" t="str" cm="1">
-        <f t="array" ref="V47:AF48">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G47:T47,G47:T47,,-1)=_xlfn.SEQUENCE(,14),
+      <c r="V47" s="1" cm="1">
+        <f t="array" aca="1" ref="V47" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G47:T47,G47:T47,,-1)=_xlfn.SEQUENCE(,14),
      _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
      _xlpm.trgs,_xlfn._xlws.FILTER(G47:T47,_xlpm.keep),
-     _xlfn.VSTACK(_xlpm.plrs,_xlpm.trgs))</f>
-        <v>P1</v>
-      </c>
-      <c r="W47" s="1" t="str">
-        <v>P2</v>
-      </c>
-      <c r="X47" s="1" t="str">
-        <v>P1</v>
-      </c>
-      <c r="Y47" s="1" t="str">
-        <v>P2</v>
-      </c>
-      <c r="Z47" s="1" t="str">
-        <v>P1</v>
-      </c>
-      <c r="AA47" s="1" t="str">
-        <v>P2</v>
-      </c>
-      <c r="AB47" s="1" t="str">
-        <v>P1</v>
-      </c>
-      <c r="AC47" s="1" t="str">
-        <v>P1</v>
-      </c>
-      <c r="AD47" s="1" t="str">
-        <v>P2</v>
-      </c>
-      <c r="AE47" s="1" t="str">
-        <v>P1</v>
-      </c>
-      <c r="AF47" s="1" t="str">
-        <v>P2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:32" ht="15.6" x14ac:dyDescent="0.3">
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="102"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
-      <c r="V48" s="1" t="str">
-        <v>B20</v>
-      </c>
-      <c r="W48" s="1" t="str">
-        <v>AK19</v>
-      </c>
-      <c r="X48" s="1" t="str">
-        <v>AB32</v>
-      </c>
-      <c r="Y48" s="1" t="str">
-        <v>A21</v>
-      </c>
-      <c r="Z48" s="1" t="str">
-        <v>BH18</v>
-      </c>
-      <c r="AA48" s="1" t="str">
-        <v>O4</v>
-      </c>
-      <c r="AB48" s="1" t="str">
-        <v>AM25</v>
-      </c>
-      <c r="AC48" s="1" t="str">
-        <v>BG7</v>
-      </c>
-      <c r="AD48" s="1" t="str">
-        <v>AL18</v>
-      </c>
-      <c r="AE48" s="1" t="str">
-        <v>BC21</v>
-      </c>
-      <c r="AF48" s="1" t="str">
-        <v>P7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V48" s="1" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="V48" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G48:T48,G48:T48,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G48:T48,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B49" s="103">
         <v>1</v>
       </c>
@@ -9658,10 +9683,12 @@
       <c r="D49" s="39">
         <v>6</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="41">
+        <v>19</v>
+      </c>
       <c r="F49" s="46">
         <f>IF(ISBLANK(E49),0,IF(E49=Answers!E49,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>109</v>
@@ -9705,8 +9732,18 @@
       <c r="T49" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V49" s="1" cm="1">
+        <f t="array" aca="1" ref="V49" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G49:T49,G49:T49,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G49:T49,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B50" s="103">
         <f>B49+1</f>
         <v>2</v>
@@ -9717,10 +9754,12 @@
       <c r="D50" s="39">
         <v>6</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="41">
+        <v>25</v>
+      </c>
       <c r="F50" s="46">
         <f>IF(ISBLANK(E50),0,IF(E50=Answers!E50,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>122</v>
@@ -9764,8 +9803,18 @@
       <c r="T50" s="14" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V50" s="1" cm="1">
+        <f t="array" aca="1" ref="V50" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G50:T50,G50:T50,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G50:T50,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B51" s="103">
         <f>B50+1</f>
         <v>3</v>
@@ -9776,10 +9825,12 @@
       <c r="D51" s="39">
         <v>6</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="41">
+        <v>14</v>
+      </c>
       <c r="F51" s="46">
         <f>IF(ISBLANK(E51),0,IF(E51=Answers!E51,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>136</v>
@@ -9823,8 +9874,18 @@
       <c r="T51" s="14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V51" s="1" cm="1">
+        <f t="array" aca="1" ref="V51" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G51:T51,G51:T51,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G51:T51,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B52" s="103">
         <f t="shared" ref="B52:B58" si="0">B51+1</f>
         <v>4</v>
@@ -9835,10 +9896,12 @@
       <c r="D52" s="39">
         <v>6</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="41">
+        <v>20</v>
+      </c>
       <c r="F52" s="46">
         <f>IF(ISBLANK(E52),0,IF(E52=Answers!E52,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>154</v>
@@ -9882,8 +9945,18 @@
       <c r="T52" s="14" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V52" s="1" cm="1">
+        <f t="array" aca="1" ref="V52" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G52:T52,G52:T52,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G52:T52,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B53" s="103">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9894,10 +9967,12 @@
       <c r="D53" s="39">
         <v>6</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="41">
+        <v>15</v>
+      </c>
       <c r="F53" s="46">
         <f>IF(ISBLANK(E53),0,IF(E53=Answers!E53,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>88</v>
@@ -9941,8 +10016,18 @@
       <c r="T53" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V53" s="1" cm="1">
+        <f t="array" aca="1" ref="V53" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G53:T53,G53:T53,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G53:T53,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B54" s="103">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9953,10 +10038,12 @@
       <c r="D54" s="39">
         <v>6</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="41">
+        <v>15</v>
+      </c>
       <c r="F54" s="46">
         <f>IF(ISBLANK(E54),0,IF(E54=Answers!E54,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>174</v>
@@ -10000,8 +10087,18 @@
       <c r="T54" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V54" s="1" cm="1">
+        <f t="array" aca="1" ref="V54" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G54:T54,G54:T54,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G54:T54,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B55" s="103">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10012,10 +10109,12 @@
       <c r="D55" s="39">
         <v>6</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="41">
+        <v>19</v>
+      </c>
       <c r="F55" s="46">
         <f>IF(ISBLANK(E55),0,IF(E55=Answers!E55,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>186</v>
@@ -10059,8 +10158,18 @@
       <c r="T55" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V55" s="1" cm="1">
+        <f t="array" aca="1" ref="V55" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G55:T55,G55:T55,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G55:T55,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B56" s="103">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10071,10 +10180,12 @@
       <c r="D56" s="39">
         <v>6</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="41">
+        <v>22</v>
+      </c>
       <c r="F56" s="46">
         <f>IF(ISBLANK(E56),0,IF(E56=Answers!E56,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>198</v>
@@ -10118,8 +10229,18 @@
       <c r="T56" s="14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V56" s="1" cm="1">
+        <f t="array" aca="1" ref="V56" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G56:T56,G56:T56,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G56:T56,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B57" s="103">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10130,10 +10251,12 @@
       <c r="D57" s="39">
         <v>6</v>
       </c>
-      <c r="E57" s="41"/>
+      <c r="E57" s="41">
+        <v>18</v>
+      </c>
       <c r="F57" s="46">
         <f>IF(ISBLANK(E57),0,IF(E57=Answers!E57,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>210</v>
@@ -10177,8 +10300,18 @@
       <c r="T57" s="14" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V57" s="1" cm="1">
+        <f t="array" aca="1" ref="V57" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G57:T57,G57:T57,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G57:T57,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B58" s="103">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10189,10 +10322,12 @@
       <c r="D58" s="39">
         <v>6</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="41">
+        <v>19</v>
+      </c>
       <c r="F58" s="46">
         <f>IF(ISBLANK(E58),0,IF(E58=Answers!E58,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>224</v>
@@ -10236,8 +10371,18 @@
       <c r="T58" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V58" s="1" cm="1">
+        <f t="array" aca="1" ref="V58" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G58:T58,G58:T58,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G58:T58,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B59" s="103">
         <f>B58+1</f>
         <v>11</v>
@@ -10248,10 +10393,12 @@
       <c r="D59" s="39">
         <v>6</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="41">
+        <v>22</v>
+      </c>
       <c r="F59" s="46">
         <f>IF(ISBLANK(E59),0,IF(E59=Answers!E59,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>238</v>
@@ -10295,8 +10442,18 @@
       <c r="T59" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V59" s="1" cm="1">
+        <f t="array" aca="1" ref="V59" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G59:T59,G59:T59,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G59:T59,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B60" s="103">
         <f>B59+1</f>
         <v>12</v>
@@ -10307,10 +10464,12 @@
       <c r="D60" s="39">
         <v>6</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="41">
+        <v>10</v>
+      </c>
       <c r="F60" s="46">
         <f>IF(ISBLANK(E60),0,IF(E60=Answers!E60,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>213</v>
@@ -10354,8 +10513,18 @@
       <c r="T60" s="14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V60" s="1" cm="1">
+        <f t="array" aca="1" ref="V60" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G60:T60,G60:T60,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G60:T60,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B61" s="103">
         <f>B60+1</f>
         <v>13</v>
@@ -10366,10 +10535,12 @@
       <c r="D61" s="39">
         <v>6</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="41">
+        <v>11</v>
+      </c>
       <c r="F61" s="46">
         <f>IF(ISBLANK(E61),0,IF(E61=Answers!E61,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>264</v>
@@ -10413,8 +10584,18 @@
       <c r="T61" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V61" s="1" cm="1">
+        <f t="array" aca="1" ref="V61" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G61:T61,G61:T61,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G61:T61,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B62" s="103">
         <f t="shared" ref="B62:B68" si="1">B61+1</f>
         <v>14</v>
@@ -10425,10 +10606,12 @@
       <c r="D62" s="39">
         <v>6</v>
       </c>
-      <c r="E62" s="41"/>
+      <c r="E62" s="41">
+        <v>20</v>
+      </c>
       <c r="F62" s="46">
         <f>IF(ISBLANK(E62),0,IF(E62=Answers!E62,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>276</v>
@@ -10472,8 +10655,18 @@
       <c r="T62" s="14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V62" s="1" cm="1">
+        <f t="array" aca="1" ref="V62" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G62:T62,G62:T62,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G62:T62,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B63" s="103">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -10484,10 +10677,12 @@
       <c r="D63" s="39">
         <v>6</v>
       </c>
-      <c r="E63" s="41"/>
+      <c r="E63" s="41">
+        <v>23</v>
+      </c>
       <c r="F63" s="46">
         <f>IF(ISBLANK(E63),0,IF(E63=Answers!E63,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>289</v>
@@ -10531,8 +10726,18 @@
       <c r="T63" s="14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V63" s="1" cm="1">
+        <f t="array" aca="1" ref="V63" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G63:T63,G63:T63,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G63:T63,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B64" s="103">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -10543,10 +10748,12 @@
       <c r="D64" s="39">
         <v>6</v>
       </c>
-      <c r="E64" s="41"/>
+      <c r="E64" s="41">
+        <v>22</v>
+      </c>
       <c r="F64" s="46">
         <f>IF(ISBLANK(E64),0,IF(E64=Answers!E64,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>301</v>
@@ -10590,8 +10797,18 @@
       <c r="T64" s="14" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V64" s="1" cm="1">
+        <f t="array" aca="1" ref="V64" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G64:T64,G64:T64,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G64:T64,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B65" s="103">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -10602,10 +10819,12 @@
       <c r="D65" s="39">
         <v>6</v>
       </c>
-      <c r="E65" s="41"/>
+      <c r="E65" s="41">
+        <v>19</v>
+      </c>
       <c r="F65" s="46">
         <f>IF(ISBLANK(E65),0,IF(E65=Answers!E65,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>306</v>
@@ -10649,8 +10868,18 @@
       <c r="T65" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V65" s="1" cm="1">
+        <f t="array" aca="1" ref="V65" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G65:T65,G65:T65,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G65:T65,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B66" s="103">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -10661,10 +10890,12 @@
       <c r="D66" s="39">
         <v>6</v>
       </c>
-      <c r="E66" s="41"/>
+      <c r="E66" s="41">
+        <v>14</v>
+      </c>
       <c r="F66" s="46">
         <f>IF(ISBLANK(E66),0,IF(E66=Answers!E66,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>322</v>
@@ -10708,8 +10939,18 @@
       <c r="T66" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V66" s="1" cm="1">
+        <f t="array" aca="1" ref="V66" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G66:T66,G66:T66,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G66:T66,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B67" s="103">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -10720,10 +10961,12 @@
       <c r="D67" s="39">
         <v>6</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="41">
+        <v>15</v>
+      </c>
       <c r="F67" s="46">
         <f>IF(ISBLANK(E67),0,IF(E67=Answers!E67,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>334</v>
@@ -10767,8 +11010,18 @@
       <c r="T67" s="14" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="V67" s="1" cm="1">
+        <f t="array" aca="1" ref="V67" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G67:T67,G67:T67,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G67:T67,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B68" s="103">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10779,10 +11032,12 @@
       <c r="D68" s="39">
         <v>6</v>
       </c>
-      <c r="E68" s="41"/>
+      <c r="E68" s="41">
+        <v>23</v>
+      </c>
       <c r="F68" s="46">
         <f>IF(ISBLANK(E68),0,IF(E68=Answers!E68,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>347</v>
@@ -10826,8 +11081,18 @@
       <c r="T68" s="14" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="V68" s="1" cm="1">
+        <f t="array" aca="1" ref="V68" ca="1">_xlfn.LET(_xlpm.keep,_xlfn.XMATCH(G68:T68,G68:T68,,-1)=_xlfn.SEQUENCE(,14),
+     _xlpm.plrs,_xlfn._xlws.FILTER($G$45:$T$45,_xlpm.keep),
+     _xlpm.trgs,_xlfn._xlws.FILTER(G68:T68,_xlpm.keep),
+     _xlpm.v, _fDeref(_xlpm.trgs),
+     _xlpm.z,_xlfn.XLOOKUP(_xlpm.v,_xlfn.TOROW($B$14:$B$21),_xlfn.TOROW($D$14:$D$21)),
+     MAX(_xlfn.GROUPBY(_xlfn.TOCOL(_xlpm.plrs),_xlfn.TOCOL(_xlpm.z),_xleta.SUM,0,0,))
+)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" ht="23.4" x14ac:dyDescent="0.25">
       <c r="B70" s="109" t="s">
         <v>1646</v>
       </c>
@@ -10835,11 +11100,11 @@
       <c r="D70" s="111"/>
       <c r="E70" s="112" t="str">
         <f>IFERROR(E49,"")&amp;";"&amp;IFERROR(E50,"")&amp;";"&amp;IFERROR(E51,"")&amp;";"&amp;IFERROR(E52,"")&amp;";"&amp;IFERROR(E53,"")&amp;";"&amp;IFERROR(E54,"")&amp;";"&amp;IFERROR(E55,"")&amp;";"&amp;IFERROR(E56,"")&amp;";"&amp;IFERROR(E57,"")&amp;";"&amp;IFERROR(E58,"")&amp;";"&amp;IFERROR(E59,"")&amp;";"&amp;IFERROR(E60,"")&amp;";"&amp;IFERROR(E61,"")&amp;";"&amp;IFERROR(E62,"")&amp;";"&amp;IFERROR(E63,"")&amp;";"&amp;IFERROR(E64,"")&amp;";"&amp;IFERROR(E65,"")&amp;";"&amp;IFERROR(E66,"")&amp;";"&amp;IFERROR(E67,"")&amp;";"&amp;IFERROR(E68,"")</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19;25;14;20;15;15;19;22;18;19;22;10;11;20;23;22;19;14;15;23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="54" t="s">
         <v>357</v>
       </c>
@@ -10847,23 +11112,23 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="35" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="77" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:20" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:22" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="148" t="s">
         <v>1606</v>
       </c>
@@ -10911,7 +11176,7 @@
       </c>
       <c r="T78" s="48"/>
     </row>
-    <row r="79" spans="2:20" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="149"/>
       <c r="C79" s="149"/>
       <c r="D79" s="149"/>
@@ -10959,7 +11224,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="80" spans="2:20" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -18528,10 +18793,10 @@
   <sheetPr codeName="Feuil3">
     <tabColor rgb="FF007B00"/>
   </sheetPr>
-  <dimension ref="A1:BJ74"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BL41" sqref="BL41"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BP7" sqref="BP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18541,7 +18806,7 @@
     <col min="63" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="57"/>
       <c r="C1" s="58"/>
@@ -18607,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="64"/>
@@ -18674,7 +18939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="64"/>
@@ -18741,7 +19006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
@@ -18808,7 +19073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -18879,7 +19144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="73" t="s">
         <v>10</v>
@@ -18949,8 +19214,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BP6" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="BP6" ca="1">_xlfn.LAMBDA(_xlpm.ref,
+_xlfn.LET(
+_xlpm.c, _xlfn.REGEXEXTRACT(_xlpm.ref,"[A-Z]+",0),
+_xlpm.r, _xlfn.REGEXEXTRACT(_xlpm.ref,"\d+",0)+0,
+_xlpm.cn,COLUMN(INDIRECT(_xlpm.c&amp;"1")),
+INDEX(_nMap,_xlpm.r,_xlpm.cn)
+))("AJ19")</f>
+        <v>🏘</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="63"/>
       <c r="C7" s="64"/>
@@ -19090,8 +19365,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BP7" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="BP7" ca="1">_fDeref("AK19")</f>
+        <v>🏘</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
@@ -19232,7 +19511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
@@ -19373,7 +19652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
@@ -19514,7 +19793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
@@ -19655,7 +19934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
       <c r="B12" s="68"/>
       <c r="C12" s="69"/>
@@ -19724,7 +20003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="74"/>
       <c r="C13" s="69"/>
@@ -19799,7 +20078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
@@ -19940,7 +20219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
@@ -20081,7 +20360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="63"/>
       <c r="C16" s="64"/>
@@ -29331,11 +29610,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B13">
-    <cfRule type="expression" dxfId="318" priority="460">
+    <cfRule type="expression" dxfId="318" priority="459">
+      <formula>A12=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="460">
       <formula>A12=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="459">
-      <formula>A12=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="316" priority="461">
       <formula>A12=$BI$1</formula>
@@ -29381,19 +29660,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D4">
-    <cfRule type="expression" dxfId="304" priority="902">
+    <cfRule type="expression" dxfId="304" priority="901">
+      <formula>C1=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="902">
       <formula>C1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="901">
-      <formula>C1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D5">
-    <cfRule type="expression" dxfId="302" priority="904">
+    <cfRule type="expression" dxfId="302" priority="903">
+      <formula>C1=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="904">
       <formula>C1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="903">
-      <formula>C1=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D30">
@@ -29413,45 +29692,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D36">
-    <cfRule type="expression" dxfId="296" priority="402">
+    <cfRule type="expression" dxfId="296" priority="400">
+      <formula>C33=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="401">
+      <formula>C33=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="402">
       <formula>C33=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="403">
+    <cfRule type="expression" dxfId="293" priority="403">
       <formula>C33=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="401">
-      <formula>C33=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="400">
-      <formula>C33=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:J13">
-    <cfRule type="expression" dxfId="292" priority="399">
-      <formula>E12=#REF!</formula>
+    <cfRule type="expression" dxfId="292" priority="396">
+      <formula>E12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="396">
-      <formula>E12=$BI$3</formula>
+    <cfRule type="expression" dxfId="291" priority="397">
+      <formula>E12=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="290" priority="398">
       <formula>E12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="397">
-      <formula>E12=$BI$2</formula>
+    <cfRule type="expression" dxfId="289" priority="399">
+      <formula>E12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:J24">
-    <cfRule type="expression" dxfId="288" priority="96">
-      <formula>E23=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="93">
+    <cfRule type="expression" dxfId="288" priority="93">
       <formula>E23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="94">
+    <cfRule type="expression" dxfId="287" priority="94">
       <formula>E23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="95">
+    <cfRule type="expression" dxfId="286" priority="95">
       <formula>E23=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="96">
+      <formula>E23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:O6">
@@ -29466,23 +29745,23 @@
     <cfRule type="expression" dxfId="282" priority="97">
       <formula>I23=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="101">
+    <cfRule type="expression" dxfId="281" priority="98">
+      <formula>I23=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="99">
+      <formula>I23=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="100">
+      <formula>I23=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="101">
       <formula>I23=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="102">
+    <cfRule type="expression" dxfId="277" priority="102">
       <formula>I23=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="103">
+    <cfRule type="expression" dxfId="276" priority="103">
       <formula>I23=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="98">
-      <formula>I23=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="100">
-      <formula>I23=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="99">
-      <formula>I23=$BI$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
@@ -29492,34 +29771,34 @@
     <cfRule type="expression" dxfId="274" priority="87">
       <formula>I31=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="89">
+    <cfRule type="expression" dxfId="273" priority="88">
+      <formula>I31=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="89">
       <formula>I31=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="90">
+    <cfRule type="expression" dxfId="271" priority="90">
       <formula>I31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="91">
+    <cfRule type="expression" dxfId="270" priority="91">
       <formula>I31=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="92">
+    <cfRule type="expression" dxfId="269" priority="92">
       <formula>I31=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="88">
-      <formula>I31=$BI$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L4">
-    <cfRule type="expression" dxfId="268" priority="854">
+    <cfRule type="expression" dxfId="268" priority="853">
+      <formula>K1=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="854">
       <formula>K1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="855">
+    <cfRule type="expression" dxfId="266" priority="855">
       <formula>K1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="856">
+    <cfRule type="expression" dxfId="265" priority="856">
       <formula>K1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="853">
-      <formula>K1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L36">
@@ -29529,53 +29808,53 @@
     <cfRule type="expression" dxfId="263" priority="405">
       <formula>K7=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="407">
+    <cfRule type="expression" dxfId="262" priority="406">
+      <formula>K7=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="407">
       <formula>K7=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="406">
-      <formula>K7=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:O13">
-    <cfRule type="expression" dxfId="260" priority="379">
-      <formula>M12=#REF!</formula>
+    <cfRule type="expression" dxfId="260" priority="376">
+      <formula>M12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="378">
+    <cfRule type="expression" dxfId="259" priority="377">
+      <formula>M12=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="378">
       <formula>M12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="377">
-      <formula>M12=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="376">
-      <formula>M12=$BI$3</formula>
+    <cfRule type="expression" dxfId="257" priority="379">
+      <formula>M12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:O24">
-    <cfRule type="expression" dxfId="256" priority="48">
-      <formula>M23=#REF!</formula>
+    <cfRule type="expression" dxfId="256" priority="45">
+      <formula>M23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="47">
+    <cfRule type="expression" dxfId="255" priority="46">
+      <formula>M23=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="47">
       <formula>M23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="46">
-      <formula>M23=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="45">
-      <formula>M23=$BI$3</formula>
+    <cfRule type="expression" dxfId="253" priority="48">
+      <formula>M23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:O32">
     <cfRule type="expression" dxfId="252" priority="41">
       <formula>M31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="43">
+    <cfRule type="expression" dxfId="251" priority="42">
+      <formula>M31=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="43">
       <formula>M31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="44">
+    <cfRule type="expression" dxfId="249" priority="44">
       <formula>M31=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="42">
-      <formula>M31=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q36">
@@ -29593,17 +29872,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="244" priority="144">
-      <formula>R5=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="141">
+    <cfRule type="expression" dxfId="244" priority="141">
       <formula>R5=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="142">
+    <cfRule type="expression" dxfId="243" priority="142">
       <formula>R5=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="143">
+    <cfRule type="expression" dxfId="242" priority="143">
       <formula>R5=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="144">
+      <formula>R5=$BI$9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="240" priority="145">
       <formula>R5=$BI$8</formula>
@@ -29616,17 +29895,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:U6">
-    <cfRule type="expression" dxfId="237" priority="19">
+    <cfRule type="expression" dxfId="237" priority="17">
+      <formula>R5=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="18">
+      <formula>R5=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="19">
       <formula>R5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="20">
+    <cfRule type="expression" dxfId="234" priority="20">
       <formula>R5=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="17">
-      <formula>R5=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="18">
-      <formula>R5=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:U13">
@@ -29644,8 +29923,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:U24">
-    <cfRule type="expression" dxfId="229" priority="351">
-      <formula>R23=#REF!</formula>
+    <cfRule type="expression" dxfId="229" priority="348">
+      <formula>R23=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="228" priority="349">
       <formula>R23=$BI$2</formula>
@@ -29653,30 +29932,30 @@
     <cfRule type="expression" dxfId="227" priority="350">
       <formula>R23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="348">
-      <formula>R23=$BI$3</formula>
+    <cfRule type="expression" dxfId="226" priority="351">
+      <formula>R23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31:U32">
-    <cfRule type="expression" dxfId="225" priority="74">
-      <formula>R31=#REF!</formula>
+    <cfRule type="expression" dxfId="225" priority="71">
+      <formula>R31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="224" priority="72">
       <formula>R31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="71">
-      <formula>R31=$BI$3</formula>
+    <cfRule type="expression" dxfId="223" priority="73">
+      <formula>R31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="73">
-      <formula>R31=$BI$1</formula>
+    <cfRule type="expression" dxfId="222" priority="74">
+      <formula>R31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="expression" dxfId="221" priority="76">
+    <cfRule type="expression" dxfId="221" priority="75">
+      <formula>S31=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="76">
       <formula>S31=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="75">
-      <formula>S31=$BI$12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="219" priority="77">
       <formula>S31=$BI$10</formula>
@@ -29687,64 +29966,64 @@
     <cfRule type="expression" dxfId="217" priority="79">
       <formula>S31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="81">
+    <cfRule type="expression" dxfId="216" priority="80">
+      <formula>S31=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="81">
       <formula>S31=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="80">
-      <formula>S31=$BI$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:W36">
-    <cfRule type="expression" dxfId="214" priority="415">
-      <formula>V1=#REF!</formula>
+    <cfRule type="expression" dxfId="214" priority="412">
+      <formula>V1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="414">
+    <cfRule type="expression" dxfId="213" priority="413">
+      <formula>V1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="414">
       <formula>V1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="413">
-      <formula>V1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="412">
-      <formula>V1=$BI$3</formula>
+    <cfRule type="expression" dxfId="211" priority="415">
+      <formula>V1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:AA6">
     <cfRule type="expression" dxfId="210" priority="308">
       <formula>X5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="311">
-      <formula>X5=#REF!</formula>
+    <cfRule type="expression" dxfId="209" priority="309">
+      <formula>X5=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="208" priority="310">
       <formula>X5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="309">
-      <formula>X5=$BI$2</formula>
+    <cfRule type="expression" dxfId="207" priority="311">
+      <formula>X5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:AA13">
-    <cfRule type="expression" dxfId="206" priority="319">
-      <formula>X12=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="316">
+    <cfRule type="expression" dxfId="206" priority="316">
       <formula>X12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="317">
+    <cfRule type="expression" dxfId="205" priority="317">
       <formula>X12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="318">
+    <cfRule type="expression" dxfId="204" priority="318">
       <formula>X12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="319">
+      <formula>X12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AA24">
-    <cfRule type="expression" dxfId="202" priority="106">
-      <formula>X23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="104">
+    <cfRule type="expression" dxfId="202" priority="104">
       <formula>X23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="105">
+    <cfRule type="expression" dxfId="201" priority="105">
       <formula>X23=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="106">
+      <formula>X23=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="199" priority="107">
       <formula>X23=#REF!</formula>
@@ -29765,328 +30044,328 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="194" priority="110">
+    <cfRule type="expression" dxfId="194" priority="108">
+      <formula>Y23=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="109">
+      <formula>Y23=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="110">
       <formula>Y23=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="111">
+    <cfRule type="expression" dxfId="191" priority="111">
       <formula>Y23=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="113">
-      <formula>Y23=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="114">
-      <formula>Y23=$BI$6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="190" priority="112">
       <formula>Y23=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="108">
-      <formula>Y23=$BI$12</formula>
+    <cfRule type="expression" dxfId="189" priority="113">
+      <formula>Y23=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="109">
-      <formula>Y23=$BI$11</formula>
+    <cfRule type="expression" dxfId="188" priority="114">
+      <formula>Y23=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AC36">
-    <cfRule type="expression" dxfId="187" priority="418">
+    <cfRule type="expression" dxfId="187" priority="416">
+      <formula>AB1=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="417">
+      <formula>AB1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="418">
       <formula>AB1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="419">
+    <cfRule type="expression" dxfId="184" priority="419">
       <formula>AB1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="417">
-      <formula>AB1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="416">
-      <formula>AB1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AG6">
-    <cfRule type="expression" dxfId="183" priority="302">
+    <cfRule type="expression" dxfId="183" priority="300">
+      <formula>AD5=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="301">
+      <formula>AD5=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="302">
       <formula>AD5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="303">
+    <cfRule type="expression" dxfId="180" priority="303">
       <formula>AD5=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="301">
-      <formula>AD5=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="300">
-      <formula>AD5=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AG13">
-    <cfRule type="expression" dxfId="179" priority="295">
-      <formula>AD12=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="292">
+    <cfRule type="expression" dxfId="179" priority="292">
       <formula>AD12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="293">
+    <cfRule type="expression" dxfId="178" priority="293">
       <formula>AD12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="294">
+    <cfRule type="expression" dxfId="177" priority="294">
       <formula>AD12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="295">
+      <formula>AD12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AG24">
-    <cfRule type="expression" dxfId="175" priority="286">
-      <formula>AD23=$BI$1</formula>
+    <cfRule type="expression" dxfId="175" priority="284">
+      <formula>AD23=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="174" priority="285">
       <formula>AD23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="284">
-      <formula>AD23=$BI$3</formula>
+    <cfRule type="expression" dxfId="173" priority="286">
+      <formula>AD23=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="172" priority="287">
       <formula>AD23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD31:AG32">
-    <cfRule type="expression" dxfId="171" priority="40">
-      <formula>AD31=#REF!</formula>
+    <cfRule type="expression" dxfId="171" priority="37">
+      <formula>AD31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="39">
+    <cfRule type="expression" dxfId="170" priority="38">
+      <formula>AD31=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="39">
       <formula>AD31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="38">
-      <formula>AD31=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="37">
-      <formula>AD31=$BI$3</formula>
+    <cfRule type="expression" dxfId="168" priority="40">
+      <formula>AD31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AI36">
     <cfRule type="expression" dxfId="167" priority="420">
       <formula>AH1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="422">
+    <cfRule type="expression" dxfId="166" priority="421">
+      <formula>AH1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="422">
       <formula>AH1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="423">
+    <cfRule type="expression" dxfId="164" priority="423">
       <formula>AH1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="421">
-      <formula>AH1=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AM6">
-    <cfRule type="expression" dxfId="163" priority="129">
-      <formula>AJ5=#REF!</formula>
+    <cfRule type="expression" dxfId="163" priority="126">
+      <formula>AJ5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="128">
+    <cfRule type="expression" dxfId="162" priority="127">
+      <formula>AJ5=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="128">
       <formula>AJ5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="127">
-      <formula>AJ5=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="126">
-      <formula>AJ5=$BI$3</formula>
+    <cfRule type="expression" dxfId="160" priority="129">
+      <formula>AJ5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AM13">
-    <cfRule type="expression" dxfId="159" priority="118">
-      <formula>AJ12=#REF!</formula>
+    <cfRule type="expression" dxfId="159" priority="115">
+      <formula>AJ12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="117">
+    <cfRule type="expression" dxfId="158" priority="116">
+      <formula>AJ12=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="117">
       <formula>AJ12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="116">
-      <formula>AJ12=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="115">
-      <formula>AJ12=$BI$3</formula>
+    <cfRule type="expression" dxfId="156" priority="118">
+      <formula>AJ12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23:AM24">
-    <cfRule type="expression" dxfId="155" priority="36">
-      <formula>AJ23=#REF!</formula>
+    <cfRule type="expression" dxfId="155" priority="33">
+      <formula>AJ23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="35">
+    <cfRule type="expression" dxfId="154" priority="34">
+      <formula>AJ23=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="35">
       <formula>AJ23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="34">
-      <formula>AJ23=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="33">
-      <formula>AJ23=$BI$3</formula>
+    <cfRule type="expression" dxfId="152" priority="36">
+      <formula>AJ23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31:AM32">
-    <cfRule type="expression" dxfId="151" priority="62">
-      <formula>AJ31=$BI$1</formula>
+    <cfRule type="expression" dxfId="151" priority="60">
+      <formula>AJ31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="150" priority="61">
       <formula>AJ31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="60">
-      <formula>AJ31=$BI$3</formula>
+    <cfRule type="expression" dxfId="149" priority="62">
+      <formula>AJ31=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="148" priority="63">
       <formula>AJ31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5">
-    <cfRule type="expression" dxfId="147" priority="133">
+    <cfRule type="expression" dxfId="147" priority="130">
+      <formula>AK5=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="131">
+      <formula>AK5=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="132">
+      <formula>AK5=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="133">
       <formula>AK5=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="132">
-      <formula>AK5=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="131">
-      <formula>AK5=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="130">
-      <formula>AK5=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="136">
-      <formula>AK5=$BI$6</formula>
+    <cfRule type="expression" dxfId="143" priority="134">
+      <formula>AK5=$BI$8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="142" priority="135">
       <formula>AK5=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="134">
-      <formula>AK5=$BI$8</formula>
+    <cfRule type="expression" dxfId="141" priority="136">
+      <formula>AK5=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="140" priority="124">
+    <cfRule type="expression" dxfId="140" priority="119">
+      <formula>AK12=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="120">
+      <formula>AK12=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="121">
+      <formula>AK12=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="122">
+      <formula>AK12=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="123">
+      <formula>AK12=$BI$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="124">
       <formula>AK12=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="125">
+    <cfRule type="expression" dxfId="134" priority="125">
       <formula>AK12=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="119">
-      <formula>AK12=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="120">
-      <formula>AK12=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="121">
-      <formula>AK12=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="122">
-      <formula>AK12=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="123">
-      <formula>AK12=$BI$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="133" priority="65">
+    <cfRule type="expression" dxfId="133" priority="64">
+      <formula>AK31=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="65">
       <formula>AK31=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="67">
+    <cfRule type="expression" dxfId="131" priority="66">
+      <formula>AK31=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="67">
       <formula>AK31=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="70">
-      <formula>AK31=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="69">
-      <formula>AK31=$BI$7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="68">
       <formula>AK31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="66">
-      <formula>AK31=$BI$10</formula>
+    <cfRule type="expression" dxfId="128" priority="69">
+      <formula>AK31=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="64">
-      <formula>AK31=$BI$12</formula>
+    <cfRule type="expression" dxfId="127" priority="70">
+      <formula>AK31=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO36">
-    <cfRule type="expression" dxfId="126" priority="427">
-      <formula>AN1=#REF!</formula>
+    <cfRule type="expression" dxfId="126" priority="424">
+      <formula>AN1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="426">
+    <cfRule type="expression" dxfId="125" priority="425">
+      <formula>AN1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="426">
       <formula>AN1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="424">
-      <formula>AN1=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="425">
-      <formula>AN1=$BI$2</formula>
+    <cfRule type="expression" dxfId="123" priority="427">
+      <formula>AN1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AS6">
     <cfRule type="expression" dxfId="122" priority="236">
       <formula>AP5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="238">
+    <cfRule type="expression" dxfId="121" priority="237">
+      <formula>AP5=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="238">
       <formula>AP5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="239">
+    <cfRule type="expression" dxfId="119" priority="239">
       <formula>AP5=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="237">
-      <formula>AP5=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AS13">
-    <cfRule type="expression" dxfId="118" priority="6">
+    <cfRule type="expression" dxfId="118" priority="5">
+      <formula>AP12=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="6">
       <formula>AP12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="7">
+    <cfRule type="expression" dxfId="116" priority="7">
       <formula>AP12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="8">
+    <cfRule type="expression" dxfId="115" priority="8">
       <formula>AP12=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="5">
-      <formula>AP12=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23:AS24">
-    <cfRule type="expression" dxfId="114" priority="50">
+    <cfRule type="expression" dxfId="114" priority="49">
+      <formula>AP23=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="50">
       <formula>AP23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="49">
-      <formula>AP23=$BI$3</formula>
+    <cfRule type="expression" dxfId="112" priority="51">
+      <formula>AP23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="52">
+    <cfRule type="expression" dxfId="111" priority="52">
       <formula>AP23=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="51">
-      <formula>AP23=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP31:AS32">
-    <cfRule type="expression" dxfId="110" priority="215">
-      <formula>AP31=#REF!</formula>
+    <cfRule type="expression" dxfId="110" priority="212">
+      <formula>AP31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="214">
+    <cfRule type="expression" dxfId="109" priority="213">
+      <formula>AP31=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="214">
       <formula>AP31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="213">
-      <formula>AP31=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="212">
-      <formula>AP31=$BI$3</formula>
+    <cfRule type="expression" dxfId="107" priority="215">
+      <formula>AP31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23">
-    <cfRule type="expression" dxfId="106" priority="54">
+    <cfRule type="expression" dxfId="106" priority="53">
+      <formula>AQ23=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="54">
       <formula>AQ23=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="53">
-      <formula>AQ23=$BI$12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="55">
       <formula>AQ23=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="59">
-      <formula>AQ23=$BI$6</formula>
+    <cfRule type="expression" dxfId="103" priority="56">
+      <formula>AQ23=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="58">
+    <cfRule type="expression" dxfId="102" priority="57">
+      <formula>AQ23=$BI$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="58">
       <formula>AQ23=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="57">
-      <formula>AQ23=$BI$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="56">
-      <formula>AQ23=$BI$9</formula>
+    <cfRule type="expression" dxfId="100" priority="59">
+      <formula>AQ23=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU36">
@@ -30096,64 +30375,64 @@
     <cfRule type="expression" dxfId="98" priority="429">
       <formula>AT1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="431">
+    <cfRule type="expression" dxfId="97" priority="430">
+      <formula>AT1=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="431">
       <formula>AT1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="430">
-      <formula>AT1=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AY6">
     <cfRule type="expression" dxfId="95" priority="180">
       <formula>AV5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="183">
-      <formula>AV5=#REF!</formula>
+    <cfRule type="expression" dxfId="94" priority="181">
+      <formula>AV5=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="182">
       <formula>AV5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="181">
-      <formula>AV5=$BI$2</formula>
+    <cfRule type="expression" dxfId="92" priority="183">
+      <formula>AV5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12:AY13">
-    <cfRule type="expression" dxfId="91" priority="191">
-      <formula>AV12=#REF!</formula>
+    <cfRule type="expression" dxfId="91" priority="188">
+      <formula>AV12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="190">
+    <cfRule type="expression" dxfId="90" priority="189">
+      <formula>AV12=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="190">
       <formula>AV12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="189">
-      <formula>AV12=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="188">
-      <formula>AV12=$BI$3</formula>
+    <cfRule type="expression" dxfId="88" priority="191">
+      <formula>AV12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV23:AY24">
-    <cfRule type="expression" dxfId="87" priority="197">
+    <cfRule type="expression" dxfId="87" priority="196">
+      <formula>AV23=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="197">
       <formula>AV23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="196">
-      <formula>AV23=$BI$3</formula>
+    <cfRule type="expression" dxfId="85" priority="198">
+      <formula>AV23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="199">
+    <cfRule type="expression" dxfId="84" priority="199">
       <formula>AV23=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="198">
-      <formula>AV23=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV31:AY32">
-    <cfRule type="expression" dxfId="83" priority="205">
+    <cfRule type="expression" dxfId="83" priority="204">
+      <formula>AV31=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="205">
       <formula>AV31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="206">
+    <cfRule type="expression" dxfId="81" priority="206">
       <formula>AV31=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="204">
-      <formula>AV31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="207">
       <formula>AV31=#REF!</formula>
@@ -30166,11 +30445,11 @@
     <cfRule type="expression" dxfId="78" priority="433">
       <formula>AZ1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="435">
+    <cfRule type="expression" dxfId="77" priority="434">
+      <formula>AZ1=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="435">
       <formula>AZ1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="434">
-      <formula>AZ1=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BE6">
@@ -30180,11 +30459,11 @@
     <cfRule type="expression" dxfId="74" priority="173">
       <formula>BB5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="175">
+    <cfRule type="expression" dxfId="73" priority="174">
+      <formula>BB5=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="175">
       <formula>BB5=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="174">
-      <formula>BB5=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB12:BE13">
@@ -30219,84 +30498,84 @@
     <cfRule type="expression" dxfId="63" priority="1">
       <formula>BB31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4">
-      <formula>BB31=#REF!</formula>
+    <cfRule type="expression" dxfId="62" priority="2">
+      <formula>BB31=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="3">
       <formula>BB31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2">
-      <formula>BB31=$BI$2</formula>
+    <cfRule type="expression" dxfId="60" priority="4">
+      <formula>BB31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1:BG11">
     <cfRule type="expression" dxfId="59" priority="785">
       <formula>BF1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="787">
+    <cfRule type="expression" dxfId="58" priority="786">
+      <formula>BF1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="787">
       <formula>BF1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="788">
+    <cfRule type="expression" dxfId="56" priority="788">
       <formula>BF1=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="786">
-      <formula>BF1=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF13:BG36">
-    <cfRule type="expression" dxfId="55" priority="507">
-      <formula>BF13=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="505">
+    <cfRule type="expression" dxfId="55" priority="505">
       <formula>BF13=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="506">
+    <cfRule type="expression" dxfId="54" priority="506">
       <formula>BF13=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="507">
+      <formula>BF13=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="508">
       <formula>BF13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF12:BH12">
-    <cfRule type="expression" dxfId="51" priority="891">
-      <formula>BF12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="889">
+    <cfRule type="expression" dxfId="51" priority="889">
       <formula>BF12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="890">
+    <cfRule type="expression" dxfId="50" priority="890">
       <formula>BF12=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="891">
+      <formula>BF12=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="892">
       <formula>BF12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH13">
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="47" priority="25">
+      <formula>BH13=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>BH13=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="25">
-      <formula>BH13=$BI$3</formula>
+    <cfRule type="expression" dxfId="45" priority="27">
+      <formula>BH13=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>BH13=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="27">
-      <formula>BH13=$BI$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BI6">
-    <cfRule type="expression" dxfId="43" priority="439">
-      <formula>BH5=#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="436">
+    <cfRule type="expression" dxfId="43" priority="436">
       <formula>BH5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="437">
+    <cfRule type="expression" dxfId="42" priority="437">
       <formula>BH5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="438">
+    <cfRule type="expression" dxfId="41" priority="438">
       <formula>BH5=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="439">
+      <formula>BH5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH23:BI24">
@@ -30314,28 +30593,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH31:BI32">
-    <cfRule type="expression" dxfId="35" priority="470">
-      <formula>BH31=#REF!</formula>
+    <cfRule type="expression" dxfId="35" priority="467">
+      <formula>BH31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="468">
       <formula>BH31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="467">
-      <formula>BH31=$BI$3</formula>
+    <cfRule type="expression" dxfId="33" priority="469">
+      <formula>BH31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="469">
-      <formula>BH31=$BI$1</formula>
+    <cfRule type="expression" dxfId="32" priority="470">
+      <formula>BH31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5">
-    <cfRule type="expression" dxfId="31" priority="445">
+    <cfRule type="expression" dxfId="31" priority="444">
+      <formula>BI5=$BI$12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="445">
       <formula>BI5=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="446">
+    <cfRule type="expression" dxfId="29" priority="446">
       <formula>BI5=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="444">
-      <formula>BI5=$BI$12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="447">
       <formula>BI5=$BI$9</formula>
@@ -30351,26 +30630,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12">
-    <cfRule type="expression" dxfId="24" priority="955">
-      <formula>BI12=$BI$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="949">
+    <cfRule type="expression" dxfId="24" priority="949">
       <formula>BI12=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="950">
+    <cfRule type="expression" dxfId="23" priority="950">
       <formula>BI12=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="951">
+    <cfRule type="expression" dxfId="22" priority="951">
       <formula>BI12=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="952">
+    <cfRule type="expression" dxfId="21" priority="952">
       <formula>BI12=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="953">
+    <cfRule type="expression" dxfId="20" priority="953">
       <formula>BI12=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="954">
+    <cfRule type="expression" dxfId="19" priority="954">
       <formula>BI12=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="955">
+      <formula>BI12=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12:BI13">
@@ -30391,46 +30670,46 @@
     <cfRule type="expression" dxfId="13" priority="494">
       <formula>BI23=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="500">
-      <formula>BI23=$BI$6</formula>
+    <cfRule type="expression" dxfId="12" priority="495">
+      <formula>BI23=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="499">
+    <cfRule type="expression" dxfId="11" priority="496">
+      <formula>BI23=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="497">
+      <formula>BI23=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="498">
+      <formula>BI23=$BI$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="499">
       <formula>BI23=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="498">
-      <formula>BI23=$BI$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="497">
-      <formula>BI23=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="496">
-      <formula>BI23=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="495">
-      <formula>BI23=$BI$11</formula>
+    <cfRule type="expression" dxfId="7" priority="500">
+      <formula>BI23=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31">
-    <cfRule type="expression" dxfId="6" priority="481">
-      <formula>BI31=$BI$6</formula>
+    <cfRule type="expression" dxfId="6" priority="475">
+      <formula>BI31=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="480">
-      <formula>BI31=$BI$7</formula>
+    <cfRule type="expression" dxfId="5" priority="476">
+      <formula>BI31=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="479">
-      <formula>BI31=$BI$8</formula>
+    <cfRule type="expression" dxfId="4" priority="477">
+      <formula>BI31=$BI$10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="478">
       <formula>BI31=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="477">
-      <formula>BI31=$BI$10</formula>
+    <cfRule type="expression" dxfId="2" priority="479">
+      <formula>BI31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="475">
-      <formula>BI31=$BI$12</formula>
+    <cfRule type="expression" dxfId="1" priority="480">
+      <formula>BI31=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="476">
-      <formula>BI31=$BI$11</formula>
+    <cfRule type="expression" dxfId="0" priority="481">
+      <formula>BI31=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31118,7 +31397,7 @@
   </sheetPr>
   <dimension ref="B1:AV206"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -31677,7 +31956,7 @@
       </c>
       <c r="M26" s="145">
         <f>Case!M26</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N26" s="143"/>
       <c r="O26" s="144"/>

--- a/JET-TOON Splatoon altenative (Case & Answers).xlsx
+++ b/JET-TOON Splatoon altenative (Case & Answers).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DD754-65D7-4DD4-A96B-F585CFA6B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6C02E-8432-4407-917B-2323DDC4124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5438" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="1669">
   <si>
     <t>JET-TOON</t>
   </si>
@@ -5207,6 +5209,9 @@
   </si>
   <si>
     <t>LET THE GAMES BEGIN!</t>
+  </si>
+  <si>
+    <t>Revisit</t>
   </si>
 </sst>
 </file>
@@ -6630,7 +6635,92 @@
   <dxfs count="321">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -6675,12 +6765,22 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
       </font>
     </dxf>
     <dxf>
@@ -6695,7 +6795,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0EB9EE"/>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
       </font>
     </dxf>
     <dxf>
@@ -6720,12 +6835,472 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -6770,7 +7345,497 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
@@ -6795,7 +7860,302 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0EB9EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7A600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1C4C92"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC8262C"/>
       </font>
     </dxf>
     <dxf>
@@ -6860,1367 +8220,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0EB9EE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4C92"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF7A600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC8262C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -8704,8 +8709,8 @@
   </sheetPr>
   <dimension ref="B1:AV206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA57" sqref="AA57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9462,6 +9467,9 @@
       <c r="C37" s="55" t="s">
         <v>1615</v>
       </c>
+      <c r="L37" s="1" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18526,6 +18534,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D44:D45"/>
@@ -18538,14 +18554,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29610,11 +29618,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B13">
-    <cfRule type="expression" dxfId="318" priority="459">
+    <cfRule type="expression" dxfId="318" priority="460">
+      <formula>A12=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="459">
       <formula>A12=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="460">
-      <formula>A12=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="316" priority="461">
       <formula>A12=$BI$1</formula>
@@ -29660,19 +29668,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D4">
-    <cfRule type="expression" dxfId="304" priority="901">
+    <cfRule type="expression" dxfId="304" priority="902">
+      <formula>C1=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="901">
       <formula>C1=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="902">
-      <formula>C1=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D5">
-    <cfRule type="expression" dxfId="302" priority="903">
+    <cfRule type="expression" dxfId="302" priority="904">
+      <formula>C1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="903">
       <formula>C1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="904">
-      <formula>C1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D30">
@@ -29692,45 +29700,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D36">
-    <cfRule type="expression" dxfId="296" priority="400">
-      <formula>C33=$BI$3</formula>
+    <cfRule type="expression" dxfId="296" priority="402">
+      <formula>C33=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="401">
+    <cfRule type="expression" dxfId="295" priority="403">
+      <formula>C33=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="401">
       <formula>C33=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="402">
-      <formula>C33=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="403">
-      <formula>C33=#REF!</formula>
+    <cfRule type="expression" dxfId="293" priority="400">
+      <formula>C33=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:J13">
-    <cfRule type="expression" dxfId="292" priority="396">
+    <cfRule type="expression" dxfId="292" priority="399">
+      <formula>E12=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="396">
       <formula>E12=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="397">
-      <formula>E12=$BI$2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="290" priority="398">
       <formula>E12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="399">
-      <formula>E12=#REF!</formula>
+    <cfRule type="expression" dxfId="289" priority="397">
+      <formula>E12=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:J24">
-    <cfRule type="expression" dxfId="288" priority="93">
+    <cfRule type="expression" dxfId="288" priority="96">
+      <formula>E23=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="93">
       <formula>E23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="94">
+    <cfRule type="expression" dxfId="286" priority="94">
       <formula>E23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="95">
+    <cfRule type="expression" dxfId="285" priority="95">
       <formula>E23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="96">
-      <formula>E23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:O6">
@@ -29745,23 +29753,23 @@
     <cfRule type="expression" dxfId="282" priority="97">
       <formula>I23=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="98">
+    <cfRule type="expression" dxfId="281" priority="101">
+      <formula>I23=$BI$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="102">
+      <formula>I23=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="103">
+      <formula>I23=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="98">
       <formula>I23=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="99">
-      <formula>I23=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="100">
+    <cfRule type="expression" dxfId="277" priority="100">
       <formula>I23=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="101">
-      <formula>I23=$BI$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="102">
-      <formula>I23=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="103">
-      <formula>I23=$BI$6</formula>
+    <cfRule type="expression" dxfId="276" priority="99">
+      <formula>I23=$BI$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
@@ -29771,34 +29779,34 @@
     <cfRule type="expression" dxfId="274" priority="87">
       <formula>I31=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="88">
-      <formula>I31=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="89">
+    <cfRule type="expression" dxfId="273" priority="89">
       <formula>I31=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="90">
+    <cfRule type="expression" dxfId="272" priority="90">
       <formula>I31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="91">
+    <cfRule type="expression" dxfId="271" priority="91">
       <formula>I31=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="92">
+    <cfRule type="expression" dxfId="270" priority="92">
       <formula>I31=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="88">
+      <formula>I31=$BI$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L4">
-    <cfRule type="expression" dxfId="268" priority="853">
-      <formula>K1=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="854">
+    <cfRule type="expression" dxfId="268" priority="854">
       <formula>K1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="855">
+    <cfRule type="expression" dxfId="267" priority="855">
       <formula>K1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="856">
+    <cfRule type="expression" dxfId="266" priority="856">
       <formula>K1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="853">
+      <formula>K1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L36">
@@ -29808,53 +29816,53 @@
     <cfRule type="expression" dxfId="263" priority="405">
       <formula>K7=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="406">
+    <cfRule type="expression" dxfId="262" priority="407">
+      <formula>K7=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="406">
       <formula>K7=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="407">
-      <formula>K7=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:O13">
-    <cfRule type="expression" dxfId="260" priority="376">
-      <formula>M12=$BI$3</formula>
+    <cfRule type="expression" dxfId="260" priority="379">
+      <formula>M12=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="377">
+    <cfRule type="expression" dxfId="259" priority="378">
+      <formula>M12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="377">
       <formula>M12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="378">
-      <formula>M12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="379">
-      <formula>M12=#REF!</formula>
+    <cfRule type="expression" dxfId="257" priority="376">
+      <formula>M12=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:O24">
-    <cfRule type="expression" dxfId="256" priority="45">
-      <formula>M23=$BI$3</formula>
+    <cfRule type="expression" dxfId="256" priority="48">
+      <formula>M23=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="46">
+    <cfRule type="expression" dxfId="255" priority="47">
+      <formula>M23=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="46">
       <formula>M23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="47">
-      <formula>M23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="48">
-      <formula>M23=#REF!</formula>
+    <cfRule type="expression" dxfId="253" priority="45">
+      <formula>M23=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:O32">
     <cfRule type="expression" dxfId="252" priority="41">
       <formula>M31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="42">
-      <formula>M31=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="43">
+    <cfRule type="expression" dxfId="251" priority="43">
       <formula>M31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="44">
+    <cfRule type="expression" dxfId="250" priority="44">
       <formula>M31=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="42">
+      <formula>M31=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q36">
@@ -29872,17 +29880,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="244" priority="141">
+    <cfRule type="expression" dxfId="244" priority="144">
+      <formula>R5=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="141">
       <formula>R5=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="142">
+    <cfRule type="expression" dxfId="242" priority="142">
       <formula>R5=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="143">
+    <cfRule type="expression" dxfId="241" priority="143">
       <formula>R5=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="144">
-      <formula>R5=$BI$9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="240" priority="145">
       <formula>R5=$BI$8</formula>
@@ -29895,17 +29903,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:U6">
-    <cfRule type="expression" dxfId="237" priority="17">
+    <cfRule type="expression" dxfId="237" priority="19">
+      <formula>R5=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="20">
+      <formula>R5=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="17">
       <formula>R5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="18">
+    <cfRule type="expression" dxfId="234" priority="18">
       <formula>R5=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="19">
-      <formula>R5=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="20">
-      <formula>R5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:U13">
@@ -29923,8 +29931,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:U24">
-    <cfRule type="expression" dxfId="229" priority="348">
-      <formula>R23=$BI$3</formula>
+    <cfRule type="expression" dxfId="229" priority="351">
+      <formula>R23=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="228" priority="349">
       <formula>R23=$BI$2</formula>
@@ -29932,30 +29940,30 @@
     <cfRule type="expression" dxfId="227" priority="350">
       <formula>R23=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="351">
-      <formula>R23=#REF!</formula>
+    <cfRule type="expression" dxfId="226" priority="348">
+      <formula>R23=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31:U32">
-    <cfRule type="expression" dxfId="225" priority="71">
-      <formula>R31=$BI$3</formula>
+    <cfRule type="expression" dxfId="225" priority="74">
+      <formula>R31=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="224" priority="72">
       <formula>R31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="73">
+    <cfRule type="expression" dxfId="223" priority="71">
+      <formula>R31=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="73">
       <formula>R31=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="74">
-      <formula>R31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="expression" dxfId="221" priority="75">
+    <cfRule type="expression" dxfId="221" priority="76">
+      <formula>S31=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="75">
       <formula>S31=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="76">
-      <formula>S31=$BI$11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="219" priority="77">
       <formula>S31=$BI$10</formula>
@@ -29966,64 +29974,64 @@
     <cfRule type="expression" dxfId="217" priority="79">
       <formula>S31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="80">
+    <cfRule type="expression" dxfId="216" priority="81">
+      <formula>S31=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="80">
       <formula>S31=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="81">
-      <formula>S31=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:W36">
-    <cfRule type="expression" dxfId="214" priority="412">
-      <formula>V1=$BI$3</formula>
+    <cfRule type="expression" dxfId="214" priority="415">
+      <formula>V1=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="413">
+    <cfRule type="expression" dxfId="213" priority="414">
+      <formula>V1=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="413">
       <formula>V1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="414">
-      <formula>V1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="415">
-      <formula>V1=#REF!</formula>
+    <cfRule type="expression" dxfId="211" priority="412">
+      <formula>V1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:AA6">
     <cfRule type="expression" dxfId="210" priority="308">
       <formula>X5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="309">
-      <formula>X5=$BI$2</formula>
+    <cfRule type="expression" dxfId="209" priority="311">
+      <formula>X5=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="208" priority="310">
       <formula>X5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="311">
-      <formula>X5=#REF!</formula>
+    <cfRule type="expression" dxfId="207" priority="309">
+      <formula>X5=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:AA13">
-    <cfRule type="expression" dxfId="206" priority="316">
+    <cfRule type="expression" dxfId="206" priority="319">
+      <formula>X12=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="316">
       <formula>X12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="317">
+    <cfRule type="expression" dxfId="204" priority="317">
       <formula>X12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="318">
+    <cfRule type="expression" dxfId="203" priority="318">
       <formula>X12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="319">
-      <formula>X12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AA24">
-    <cfRule type="expression" dxfId="202" priority="104">
+    <cfRule type="expression" dxfId="202" priority="106">
+      <formula>X23=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="104">
       <formula>X23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="105">
+    <cfRule type="expression" dxfId="200" priority="105">
       <formula>X23=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="106">
-      <formula>X23=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="199" priority="107">
       <formula>X23=#REF!</formula>
@@ -30044,328 +30052,328 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="194" priority="108">
-      <formula>Y23=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="109">
-      <formula>Y23=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="110">
+    <cfRule type="expression" dxfId="194" priority="110">
       <formula>Y23=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="111">
+    <cfRule type="expression" dxfId="193" priority="111">
       <formula>Y23=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="113">
+      <formula>Y23=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="114">
+      <formula>Y23=$BI$6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="190" priority="112">
       <formula>Y23=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="113">
-      <formula>Y23=$BI$7</formula>
+    <cfRule type="expression" dxfId="189" priority="108">
+      <formula>Y23=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="114">
-      <formula>Y23=$BI$6</formula>
+    <cfRule type="expression" dxfId="188" priority="109">
+      <formula>Y23=$BI$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AC36">
-    <cfRule type="expression" dxfId="187" priority="416">
-      <formula>AB1=$BI$3</formula>
+    <cfRule type="expression" dxfId="187" priority="418">
+      <formula>AB1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="417">
+    <cfRule type="expression" dxfId="186" priority="419">
+      <formula>AB1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="417">
       <formula>AB1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="418">
-      <formula>AB1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="419">
-      <formula>AB1=#REF!</formula>
+    <cfRule type="expression" dxfId="184" priority="416">
+      <formula>AB1=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AG6">
-    <cfRule type="expression" dxfId="183" priority="300">
-      <formula>AD5=$BI$3</formula>
+    <cfRule type="expression" dxfId="183" priority="302">
+      <formula>AD5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="301">
+    <cfRule type="expression" dxfId="182" priority="303">
+      <formula>AD5=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="301">
       <formula>AD5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="302">
-      <formula>AD5=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="303">
-      <formula>AD5=#REF!</formula>
+    <cfRule type="expression" dxfId="180" priority="300">
+      <formula>AD5=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AG13">
-    <cfRule type="expression" dxfId="179" priority="292">
+    <cfRule type="expression" dxfId="179" priority="295">
+      <formula>AD12=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="292">
       <formula>AD12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="293">
+    <cfRule type="expression" dxfId="177" priority="293">
       <formula>AD12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="294">
+    <cfRule type="expression" dxfId="176" priority="294">
       <formula>AD12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="295">
-      <formula>AD12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AG24">
-    <cfRule type="expression" dxfId="175" priority="284">
-      <formula>AD23=$BI$3</formula>
+    <cfRule type="expression" dxfId="175" priority="286">
+      <formula>AD23=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="174" priority="285">
       <formula>AD23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="286">
-      <formula>AD23=$BI$1</formula>
+    <cfRule type="expression" dxfId="173" priority="284">
+      <formula>AD23=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="172" priority="287">
       <formula>AD23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD31:AG32">
-    <cfRule type="expression" dxfId="171" priority="37">
-      <formula>AD31=$BI$3</formula>
+    <cfRule type="expression" dxfId="171" priority="40">
+      <formula>AD31=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="38">
+    <cfRule type="expression" dxfId="170" priority="39">
+      <formula>AD31=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="38">
       <formula>AD31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="39">
-      <formula>AD31=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="40">
-      <formula>AD31=#REF!</formula>
+    <cfRule type="expression" dxfId="168" priority="37">
+      <formula>AD31=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AI36">
     <cfRule type="expression" dxfId="167" priority="420">
       <formula>AH1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="421">
-      <formula>AH1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="422">
+    <cfRule type="expression" dxfId="166" priority="422">
       <formula>AH1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="423">
+    <cfRule type="expression" dxfId="165" priority="423">
       <formula>AH1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="421">
+      <formula>AH1=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AM6">
-    <cfRule type="expression" dxfId="163" priority="126">
-      <formula>AJ5=$BI$3</formula>
+    <cfRule type="expression" dxfId="163" priority="129">
+      <formula>AJ5=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="127">
+    <cfRule type="expression" dxfId="162" priority="128">
+      <formula>AJ5=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="127">
       <formula>AJ5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="128">
-      <formula>AJ5=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="129">
-      <formula>AJ5=#REF!</formula>
+    <cfRule type="expression" dxfId="160" priority="126">
+      <formula>AJ5=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AM13">
-    <cfRule type="expression" dxfId="159" priority="115">
-      <formula>AJ12=$BI$3</formula>
+    <cfRule type="expression" dxfId="159" priority="118">
+      <formula>AJ12=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="116">
+    <cfRule type="expression" dxfId="158" priority="117">
+      <formula>AJ12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="116">
       <formula>AJ12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="117">
-      <formula>AJ12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="118">
-      <formula>AJ12=#REF!</formula>
+    <cfRule type="expression" dxfId="156" priority="115">
+      <formula>AJ12=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23:AM24">
-    <cfRule type="expression" dxfId="155" priority="33">
-      <formula>AJ23=$BI$3</formula>
+    <cfRule type="expression" dxfId="155" priority="36">
+      <formula>AJ23=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="34">
+    <cfRule type="expression" dxfId="154" priority="35">
+      <formula>AJ23=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="34">
       <formula>AJ23=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="35">
-      <formula>AJ23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="36">
-      <formula>AJ23=#REF!</formula>
+    <cfRule type="expression" dxfId="152" priority="33">
+      <formula>AJ23=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31:AM32">
-    <cfRule type="expression" dxfId="151" priority="60">
-      <formula>AJ31=$BI$3</formula>
+    <cfRule type="expression" dxfId="151" priority="62">
+      <formula>AJ31=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="150" priority="61">
       <formula>AJ31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="62">
-      <formula>AJ31=$BI$1</formula>
+    <cfRule type="expression" dxfId="149" priority="60">
+      <formula>AJ31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="148" priority="63">
       <formula>AJ31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5">
-    <cfRule type="expression" dxfId="147" priority="130">
+    <cfRule type="expression" dxfId="147" priority="133">
+      <formula>AK5=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="132">
+      <formula>AK5=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="131">
+      <formula>AK5=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="130">
       <formula>AK5=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="131">
-      <formula>AK5=$BI$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="132">
-      <formula>AK5=$BI$10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="133">
-      <formula>AK5=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="134">
-      <formula>AK5=$BI$8</formula>
+    <cfRule type="expression" dxfId="143" priority="136">
+      <formula>AK5=$BI$6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="142" priority="135">
       <formula>AK5=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="136">
-      <formula>AK5=$BI$6</formula>
+    <cfRule type="expression" dxfId="141" priority="134">
+      <formula>AK5=$BI$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="140" priority="119">
+    <cfRule type="expression" dxfId="140" priority="124">
+      <formula>AK12=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="125">
+      <formula>AK12=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="119">
       <formula>AK12=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="120">
+    <cfRule type="expression" dxfId="137" priority="120">
       <formula>AK12=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="121">
+    <cfRule type="expression" dxfId="136" priority="121">
       <formula>AK12=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="122">
+    <cfRule type="expression" dxfId="135" priority="122">
       <formula>AK12=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="123">
+    <cfRule type="expression" dxfId="134" priority="123">
       <formula>AK12=$BI$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="124">
-      <formula>AK12=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="125">
-      <formula>AK12=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="133" priority="64">
-      <formula>AK31=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="65">
+    <cfRule type="expression" dxfId="133" priority="65">
       <formula>AK31=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="66">
-      <formula>AK31=$BI$10</formula>
+    <cfRule type="expression" dxfId="132" priority="67">
+      <formula>AK31=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="67">
-      <formula>AK31=$BI$9</formula>
+    <cfRule type="expression" dxfId="131" priority="70">
+      <formula>AK31=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="69">
+      <formula>AK31=$BI$7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="68">
       <formula>AK31=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="69">
-      <formula>AK31=$BI$7</formula>
+    <cfRule type="expression" dxfId="128" priority="66">
+      <formula>AK31=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="70">
-      <formula>AK31=$BI$6</formula>
+    <cfRule type="expression" dxfId="127" priority="64">
+      <formula>AK31=$BI$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO36">
-    <cfRule type="expression" dxfId="126" priority="424">
+    <cfRule type="expression" dxfId="126" priority="427">
+      <formula>AN1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="426">
+      <formula>AN1=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="424">
       <formula>AN1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="425">
+    <cfRule type="expression" dxfId="123" priority="425">
       <formula>AN1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="426">
-      <formula>AN1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="427">
-      <formula>AN1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AS6">
     <cfRule type="expression" dxfId="122" priority="236">
       <formula>AP5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="237">
-      <formula>AP5=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="238">
+    <cfRule type="expression" dxfId="121" priority="238">
       <formula>AP5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="239">
+    <cfRule type="expression" dxfId="120" priority="239">
       <formula>AP5=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="237">
+      <formula>AP5=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AS13">
-    <cfRule type="expression" dxfId="118" priority="5">
-      <formula>AP12=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="6">
+    <cfRule type="expression" dxfId="118" priority="6">
       <formula>AP12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="7">
+    <cfRule type="expression" dxfId="117" priority="7">
       <formula>AP12=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8">
+    <cfRule type="expression" dxfId="116" priority="8">
       <formula>AP12=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="5">
+      <formula>AP12=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23:AS24">
-    <cfRule type="expression" dxfId="114" priority="49">
+    <cfRule type="expression" dxfId="114" priority="50">
+      <formula>AP23=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="49">
       <formula>AP23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="50">
-      <formula>AP23=$BI$2</formula>
+    <cfRule type="expression" dxfId="112" priority="52">
+      <formula>AP23=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="51">
+    <cfRule type="expression" dxfId="111" priority="51">
       <formula>AP23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="52">
-      <formula>AP23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP31:AS32">
-    <cfRule type="expression" dxfId="110" priority="212">
-      <formula>AP31=$BI$3</formula>
+    <cfRule type="expression" dxfId="110" priority="215">
+      <formula>AP31=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="213">
+    <cfRule type="expression" dxfId="109" priority="214">
+      <formula>AP31=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="213">
       <formula>AP31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="214">
-      <formula>AP31=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="215">
-      <formula>AP31=#REF!</formula>
+    <cfRule type="expression" dxfId="107" priority="212">
+      <formula>AP31=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23">
-    <cfRule type="expression" dxfId="106" priority="53">
+    <cfRule type="expression" dxfId="106" priority="54">
+      <formula>AQ23=$BI$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="53">
       <formula>AQ23=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="54">
-      <formula>AQ23=$BI$11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="55">
       <formula>AQ23=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="56">
-      <formula>AQ23=$BI$9</formula>
+    <cfRule type="expression" dxfId="103" priority="59">
+      <formula>AQ23=$BI$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="57">
+    <cfRule type="expression" dxfId="102" priority="58">
+      <formula>AQ23=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="57">
       <formula>AQ23=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="58">
-      <formula>AQ23=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="59">
-      <formula>AQ23=$BI$6</formula>
+    <cfRule type="expression" dxfId="100" priority="56">
+      <formula>AQ23=$BI$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU36">
@@ -30375,64 +30383,64 @@
     <cfRule type="expression" dxfId="98" priority="429">
       <formula>AT1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="430">
+    <cfRule type="expression" dxfId="97" priority="431">
+      <formula>AT1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="430">
       <formula>AT1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="431">
-      <formula>AT1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AY6">
     <cfRule type="expression" dxfId="95" priority="180">
       <formula>AV5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="181">
-      <formula>AV5=$BI$2</formula>
+    <cfRule type="expression" dxfId="94" priority="183">
+      <formula>AV5=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="182">
       <formula>AV5=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="183">
-      <formula>AV5=#REF!</formula>
+    <cfRule type="expression" dxfId="92" priority="181">
+      <formula>AV5=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12:AY13">
-    <cfRule type="expression" dxfId="91" priority="188">
-      <formula>AV12=$BI$3</formula>
+    <cfRule type="expression" dxfId="91" priority="191">
+      <formula>AV12=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="189">
+    <cfRule type="expression" dxfId="90" priority="190">
+      <formula>AV12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="189">
       <formula>AV12=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="190">
-      <formula>AV12=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="191">
-      <formula>AV12=#REF!</formula>
+    <cfRule type="expression" dxfId="88" priority="188">
+      <formula>AV12=$BI$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV23:AY24">
-    <cfRule type="expression" dxfId="87" priority="196">
+    <cfRule type="expression" dxfId="87" priority="197">
+      <formula>AV23=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="196">
       <formula>AV23=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="197">
-      <formula>AV23=$BI$2</formula>
+    <cfRule type="expression" dxfId="85" priority="199">
+      <formula>AV23=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="198">
+    <cfRule type="expression" dxfId="84" priority="198">
       <formula>AV23=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="199">
-      <formula>AV23=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV31:AY32">
-    <cfRule type="expression" dxfId="83" priority="204">
-      <formula>AV31=$BI$3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="205">
+    <cfRule type="expression" dxfId="83" priority="205">
       <formula>AV31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="206">
+    <cfRule type="expression" dxfId="82" priority="206">
       <formula>AV31=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="204">
+      <formula>AV31=$BI$3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="207">
       <formula>AV31=#REF!</formula>
@@ -30445,11 +30453,11 @@
     <cfRule type="expression" dxfId="78" priority="433">
       <formula>AZ1=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="434">
+    <cfRule type="expression" dxfId="77" priority="435">
+      <formula>AZ1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="434">
       <formula>AZ1=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="435">
-      <formula>AZ1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BE6">
@@ -30459,11 +30467,11 @@
     <cfRule type="expression" dxfId="74" priority="173">
       <formula>BB5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="174">
+    <cfRule type="expression" dxfId="73" priority="175">
+      <formula>BB5=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="174">
       <formula>BB5=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="175">
-      <formula>BB5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB12:BE13">
@@ -30498,84 +30506,84 @@
     <cfRule type="expression" dxfId="63" priority="1">
       <formula>BB31=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="2">
-      <formula>BB31=$BI$2</formula>
+    <cfRule type="expression" dxfId="62" priority="4">
+      <formula>BB31=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="3">
       <formula>BB31=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="4">
-      <formula>BB31=#REF!</formula>
+    <cfRule type="expression" dxfId="60" priority="2">
+      <formula>BB31=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1:BG11">
     <cfRule type="expression" dxfId="59" priority="785">
       <formula>BF1=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="786">
-      <formula>BF1=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="787">
+    <cfRule type="expression" dxfId="58" priority="787">
       <formula>BF1=$BI$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="788">
+    <cfRule type="expression" dxfId="57" priority="788">
       <formula>BF1=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="786">
+      <formula>BF1=$BI$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF13:BG36">
-    <cfRule type="expression" dxfId="55" priority="505">
+    <cfRule type="expression" dxfId="55" priority="507">
+      <formula>BF13=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="505">
       <formula>BF13=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="506">
+    <cfRule type="expression" dxfId="53" priority="506">
       <formula>BF13=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="507">
-      <formula>BF13=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="508">
       <formula>BF13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF12:BH12">
-    <cfRule type="expression" dxfId="51" priority="889">
+    <cfRule type="expression" dxfId="51" priority="891">
+      <formula>BF12=$BI$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="889">
       <formula>BF12=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="890">
+    <cfRule type="expression" dxfId="49" priority="890">
       <formula>BF12=$BI$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="891">
-      <formula>BF12=$BI$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="892">
       <formula>BF12=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH13">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="47" priority="26">
+      <formula>BH13=$BI$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="25">
       <formula>BH13=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26">
-      <formula>BH13=$BI$2</formula>
+    <cfRule type="expression" dxfId="45" priority="28">
+      <formula>BH13=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="44" priority="27">
       <formula>BH13=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28">
-      <formula>BH13=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BI6">
-    <cfRule type="expression" dxfId="43" priority="436">
+    <cfRule type="expression" dxfId="43" priority="439">
+      <formula>BH5=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="436">
       <formula>BH5=$BI$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="437">
+    <cfRule type="expression" dxfId="41" priority="437">
       <formula>BH5=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="438">
+    <cfRule type="expression" dxfId="40" priority="438">
       <formula>BH5=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="439">
-      <formula>BH5=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH23:BI24">
@@ -30593,28 +30601,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH31:BI32">
-    <cfRule type="expression" dxfId="35" priority="467">
-      <formula>BH31=$BI$3</formula>
+    <cfRule type="expression" dxfId="35" priority="470">
+      <formula>BH31=#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="468">
       <formula>BH31=$BI$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="469">
+    <cfRule type="expression" dxfId="33" priority="467">
+      <formula>BH31=$BI$3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="469">
       <formula>BH31=$BI$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="470">
-      <formula>BH31=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5">
-    <cfRule type="expression" dxfId="31" priority="444">
-      <formula>BI5=$BI$12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="445">
+    <cfRule type="expression" dxfId="31" priority="445">
       <formula>BI5=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="446">
+    <cfRule type="expression" dxfId="30" priority="446">
       <formula>BI5=$BI$10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="444">
+      <formula>BI5=$BI$12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="447">
       <formula>BI5=$BI$9</formula>
@@ -30630,26 +30638,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12">
-    <cfRule type="expression" dxfId="24" priority="949">
+    <cfRule type="expression" dxfId="24" priority="955">
+      <formula>BI12=$BI$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="949">
       <formula>BI12=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="950">
+    <cfRule type="expression" dxfId="22" priority="950">
       <formula>BI12=$BI$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="951">
+    <cfRule type="expression" dxfId="21" priority="951">
       <formula>BI12=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="952">
+    <cfRule type="expression" dxfId="20" priority="952">
       <formula>BI12=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="953">
+    <cfRule type="expression" dxfId="19" priority="953">
       <formula>BI12=$BI$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="954">
+    <cfRule type="expression" dxfId="18" priority="954">
       <formula>BI12=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="955">
-      <formula>BI12=$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12:BI13">
@@ -30670,46 +30678,46 @@
     <cfRule type="expression" dxfId="13" priority="494">
       <formula>BI23=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="495">
-      <formula>BI23=$BI$11</formula>
+    <cfRule type="expression" dxfId="12" priority="500">
+      <formula>BI23=$BI$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="496">
+    <cfRule type="expression" dxfId="11" priority="499">
+      <formula>BI23=$BI$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="498">
+      <formula>BI23=$BI$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="497">
+      <formula>BI23=$BI$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="496">
       <formula>BI23=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="497">
-      <formula>BI23=$BI$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="498">
-      <formula>BI23=$BI$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="499">
-      <formula>BI23=$BI$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="500">
-      <formula>BI23=$BI$6</formula>
+    <cfRule type="expression" dxfId="7" priority="495">
+      <formula>BI23=$BI$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31">
-    <cfRule type="expression" dxfId="6" priority="475">
-      <formula>BI31=$BI$12</formula>
+    <cfRule type="expression" dxfId="6" priority="481">
+      <formula>BI31=$BI$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="476">
-      <formula>BI31=$BI$11</formula>
+    <cfRule type="expression" dxfId="5" priority="480">
+      <formula>BI31=$BI$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="477">
-      <formula>BI31=$BI$10</formula>
+    <cfRule type="expression" dxfId="4" priority="479">
+      <formula>BI31=$BI$8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="478">
       <formula>BI31=$BI$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="479">
-      <formula>BI31=$BI$8</formula>
+    <cfRule type="expression" dxfId="2" priority="477">
+      <formula>BI31=$BI$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="480">
-      <formula>BI31=$BI$7</formula>
+    <cfRule type="expression" dxfId="1" priority="475">
+      <formula>BI31=$BI$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="481">
-      <formula>BI31=$BI$6</formula>
+    <cfRule type="expression" dxfId="0" priority="476">
+      <formula>BI31=$BI$11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40838,6 +40846,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D44:D45"/>
@@ -40846,18 +40866,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
